--- a/Python_Scripts/Daily_Radioactivity/data_files/Radioactive_Disposal_log_blank.xlsx
+++ b/Python_Scripts/Daily_Radioactivity/data_files/Radioactive_Disposal_log_blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kealbert\Documents\Python Scripts\Trying stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kealbert\Documents\Python Scripts\Trying stuff\Daily_Radioactivity\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76592E-1167-4084-BAD8-7F89A83085A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B3C919-ED19-4972-827B-40B56C982EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57613B9F-50AF-4EA7-B8DB-0F5D0FA6D367}"/>
+    <workbookView xWindow="600" yWindow="2250" windowWidth="20490" windowHeight="12045" xr2:uid="{57613B9F-50AF-4EA7-B8DB-0F5D0FA6D367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -47,13 +47,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>uCi</t>
-  </si>
-  <si>
-    <t>Sink Disposal (uCi)</t>
-  </si>
-  <si>
-    <t>Dry Waste (uCi)</t>
+    <t>mCi</t>
+  </si>
+  <si>
+    <t>Sink Disposal (mCi)</t>
+  </si>
+  <si>
+    <t>Dry Waste (mCi)</t>
+  </si>
+  <si>
+    <t>Batch Number</t>
   </si>
 </sst>
 </file>
@@ -120,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -266,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,21 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC799D73-E909-497D-B45B-6DFACF50074C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,15 +442,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
